--- a/biology/Botanique/Parc_départemental_de_l'île_Saint-Germain/Parc_départemental_de_l'île_Saint-Germain.xlsx
+++ b/biology/Botanique/Parc_départemental_de_l'île_Saint-Germain/Parc_départemental_de_l'île_Saint-Germain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc départemental de l'île Saint-Germain est un espace vert de 21,5 hectares situé sur l'île Saint-Germain à Issy-les-Moulineaux dans le département des Hauts-de-Seine. Il est célèbre pour la Tour aux figures, sculpture monumentale de Jean Dubuffet, et comporte plusieurs jardins aux atmosphères différentes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc naît en 1980 dans des conditions particulières : l'île Saint-Germain était en effet destinée par le SDRIF (Schéma Directeur de la Région Île-de-France) de 1965 à être transformée en une zone portuaire, mais la mobilisation des maires des communes alentour (notamment les maires d'Issy-les-Moulineaux, Boulogne-Billancourt et Meudon) et du département Hauts-de-Seine a empêché ce projet de voir le jour[1].
-Le terrain est donc aménagé en 1980 en parc de douze hectares, nécessitant la démolition de trente-cinq bâtiments, l'apport de 45 000 m3 de terre végétale et un reboisement important (1500 arbres et 3500 arbustes)[1].
-Depuis 1988 la Tour aux figures de Jean Dubuffet se dresse à la proue de l'île[2].
-Des aménagements supplémentaires, notamment entre 1993 et 1996, voient l'ajout de huit hectares à la superficie du parc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc naît en 1980 dans des conditions particulières : l'île Saint-Germain était en effet destinée par le SDRIF (Schéma Directeur de la Région Île-de-France) de 1965 à être transformée en une zone portuaire, mais la mobilisation des maires des communes alentour (notamment les maires d'Issy-les-Moulineaux, Boulogne-Billancourt et Meudon) et du département Hauts-de-Seine a empêché ce projet de voir le jour.
+Le terrain est donc aménagé en 1980 en parc de douze hectares, nécessitant la démolition de trente-cinq bâtiments, l'apport de 45 000 m3 de terre végétale et un reboisement important (1500 arbres et 3500 arbustes).
+Depuis 1988 la Tour aux figures de Jean Dubuffet se dresse à la proue de l'île.
+Des aménagements supplémentaires, notamment entre 1993 et 1996, voient l'ajout de huit hectares à la superficie du parc.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,18 +562,198 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jardins de lavandes
-Le jardin de lavandes est situé au Sud de l'île, et accueille des plantes méditerranéennes ayant une préférence pour les milieux secs (lavande, sauge, sarriette, etc.)[1].
-Jardin des imprévus
-Le jardin des imprévus est situé au Sud du jardin des lavandes, au centre de l'île. La végétation n'y est pas contrôlée, c'est-à-dire que les espèces n'y sont pas choisies et poussent librement[1].
-Jardin clos
-Les jardins clos sont des allées ombragées (pouvant rappeler la coursive des monastères)[1].
-Jardin des messicoles
-Le jardin des messicoles abrite des plantes accompagnant les moissons, aussi connues sous l'appellation « fleurs des champs »[1]
-Jardin antérieur
-Le jardin antérieur est réalisé de manière à rappeler l'histoire de l'île Saint-Germain : au VIe siècle de notre ère, l'île appartenait à l'abbaye de Saint-Germain-des-Prés ; la tradition voulait alors que les moines cultivent des potagers, et que dans chacun de ces potagers soient plantés des figuiers. Le jardin antérieur du parc est donc aujourd'hui fruitier[1].
-Jardin des découvertes
-Le jardin des découvertes comporte une mare et un potager biologique à vocation pédagogue. Sa forme rappelle celle d'une coquille d'escargot, et des devinettes sont placées le long du parcours[1].
+          <t>Jardins de lavandes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin de lavandes est situé au Sud de l'île, et accueille des plantes méditerranéennes ayant une préférence pour les milieux secs (lavande, sauge, sarriette, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jardin des imprévus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin des imprévus est situé au Sud du jardin des lavandes, au centre de l'île. La végétation n'y est pas contrôlée, c'est-à-dire que les espèces n'y sont pas choisies et poussent librement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jardin clos</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jardins clos sont des allées ombragées (pouvant rappeler la coursive des monastères).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jardin des messicoles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin des messicoles abrite des plantes accompagnant les moissons, aussi connues sous l'appellation « fleurs des champs »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jardin antérieur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin antérieur est réalisé de manière à rappeler l'histoire de l'île Saint-Germain : au VIe siècle de notre ère, l'île appartenait à l'abbaye de Saint-Germain-des-Prés ; la tradition voulait alors que les moines cultivent des potagers, et que dans chacun de ces potagers soient plantés des figuiers. Le jardin antérieur du parc est donc aujourd'hui fruitier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_départemental_de_l'île_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_d%C3%A9partemental_de_l%27%C3%AEle_Saint-Germain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Jardins</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jardin des découvertes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin des découvertes comporte une mare et un potager biologique à vocation pédagogue. Sa forme rappelle celle d'une coquille d'escargot, et des devinettes sont placées le long du parcours.
 </t>
         </is>
       </c>
